--- a/dictionnair.xlsx
+++ b/dictionnair.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Brief\Brief_6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simplon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC56562B-54BC-4691-8AA7-D9087F03B4F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FA913-4F53-4965-89C3-A9D7D22F87EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3E2A9D2-0B69-4966-83E6-5F228ED952FB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>DateMu</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>NatMu</t>
   </si>
   <si>
@@ -48,9 +45,6 @@
     <t>Texte</t>
   </si>
   <si>
-    <t>Longueur : 30</t>
-  </si>
-  <si>
     <t>ValeurFon</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>Type de voie</t>
   </si>
   <si>
-    <t>Longueur : 5</t>
-  </si>
-  <si>
     <t>CodeVoie</t>
   </si>
   <si>
@@ -96,9 +87,6 @@
     <t>Voie</t>
   </si>
   <si>
-    <t>Longueur : 26</t>
-  </si>
-  <si>
     <t>CP</t>
   </si>
   <si>
@@ -117,27 +105,18 @@
     <t>Code departement</t>
   </si>
   <si>
-    <t xml:space="preserve">Longueur : 2 </t>
-  </si>
-  <si>
     <t>CodeCom</t>
   </si>
   <si>
     <t>Code commune</t>
   </si>
   <si>
-    <t xml:space="preserve">Longueur : 3 </t>
-  </si>
-  <si>
     <t>PrefSec</t>
   </si>
   <si>
     <t>Prefixe de section</t>
   </si>
   <si>
-    <t>Longueur : 3</t>
-  </si>
-  <si>
     <t>Sec</t>
   </si>
   <si>
@@ -256,9 +235,6 @@
   </si>
   <si>
     <t xml:space="preserve">Type </t>
-  </si>
-  <si>
-    <t>Observation</t>
   </si>
 </sst>
 </file>
@@ -303,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,22 +307,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,16 +319,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -679,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31569EC1-6B3B-4331-968F-5936724007BC}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072369E0-9BFA-45FF-B07A-E1FACE5AD119}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,27 +650,23 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -724,475 +679,426 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="3"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
